--- a/Case-Study/Data/fernverkehr_sbb.xlsx
+++ b/Case-Study/Data/fernverkehr_sbb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Documents\FHSG\MSc\FS24\BINA\Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0B6B7C-68E5-4580-986A-77B8E22A4C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD40D13-89F6-4697-A0F6-8C9AFB0CA4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{CC845F9B-A7BB-4FC9-BE4C-39E16558511F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="71">
   <si>
     <t>IC1</t>
   </si>
@@ -231,6 +231,24 @@
   </si>
   <si>
     <t>LAENGENGRAD</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>München</t>
+  </si>
+  <si>
+    <t>Buchloe</t>
+  </si>
+  <si>
+    <t>Memmingen</t>
+  </si>
+  <si>
+    <t>Lindau-Reutin</t>
+  </si>
+  <si>
+    <t>Bregenz</t>
   </si>
 </sst>
 </file>
@@ -592,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26719B-4384-44C7-B8B4-0AC1B7B5B9DD}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -619,157 +637,167 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>65</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2">
+        <v>48.140502393602702</v>
+      </c>
+      <c r="D2">
+        <v>11.5584549856616</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3">
+        <v>48.033469670828303</v>
+      </c>
+      <c r="D3">
+        <v>10.716229362172699</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>47.985657959875503</v>
+      </c>
+      <c r="D4">
+        <v>10.186999441204099</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <v>47.552365076156001</v>
+      </c>
+      <c r="D5">
+        <v>9.7027184736939098</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>47.503316777784597</v>
+      </c>
+      <c r="D6">
+        <v>9.7412019105930305</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>47.4531199726677</v>
+      </c>
+      <c r="D7">
+        <v>9.6393359720897003</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="C8">
         <v>47.423416883991401</v>
       </c>
-      <c r="D2">
+      <c r="D8">
         <v>9.3691949225297009</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>47.411754910582999</v>
-      </c>
-      <c r="D3">
-        <v>9.2541367432723298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>47.416248840622202</v>
-      </c>
-      <c r="D4">
-        <v>9.1884798399962904</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>47.437294341336298</v>
-      </c>
-      <c r="D5">
-        <v>9.1314685723731301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <v>47.4622350308791</v>
-      </c>
-      <c r="D6">
-        <v>9.0402704927504995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>47.500313800000001</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>8.7239736000000008</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>47.451026916503899</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>8.5638494491577095</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>47.378844392360598</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>8.5366312378669402</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>46.948803954456402</v>
-      </c>
-      <c r="D10">
-        <v>7.4381822645716396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>46.802662940701403</v>
-      </c>
-      <c r="D11">
-        <v>7.1503997950266402</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>46.516589621566702</v>
+        <v>47.423416883991401</v>
       </c>
       <c r="D12">
-        <v>6.6292656926211198</v>
+        <v>9.3691949225297009</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -777,13 +805,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>46.211167447950302</v>
+        <v>47.411754910582999</v>
       </c>
       <c r="D13">
-        <v>6.1428510558347096</v>
+        <v>9.2541367432723298</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -791,46 +819,46 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>46.230920449778502</v>
+        <v>47.416248840622202</v>
       </c>
       <c r="D14">
-        <v>6.1100619971565804</v>
+        <v>9.1884798399962904</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>47.477877326702497</v>
+        <v>47.437294341336298</v>
       </c>
       <c r="D15">
-        <v>9.5062310163113999</v>
+        <v>9.1314685723731301</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>47.423416883991401</v>
+        <v>47.4622350308791</v>
       </c>
       <c r="D16">
-        <v>9.3691949225297009</v>
+        <v>9.0402704927504995</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -844,7 +872,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -858,7 +886,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -872,72 +900,72 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>47.391165376869999</v>
+        <v>46.948803954456402</v>
       </c>
       <c r="D20">
-        <v>8.05176399790356</v>
+        <v>7.4381822645716396</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>47.352446261822799</v>
+        <v>46.802662940701403</v>
       </c>
       <c r="D21">
-        <v>7.9080594187659896</v>
+        <v>7.1503997950266402</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>47.204002935251303</v>
+        <v>46.516589621566702</v>
       </c>
       <c r="D22">
-        <v>7.54321976893642</v>
+        <v>6.6292656926211198</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>47.132393384583203</v>
+        <v>46.211167447950302</v>
       </c>
       <c r="D23">
-        <v>7.2432906568774902</v>
+        <v>6.1428510558347096</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>46.997037605992297</v>
+        <v>46.230920449778502</v>
       </c>
       <c r="D24">
-        <v>6.9358085641640104</v>
+        <v>6.1100619971565804</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -945,13 +973,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>46.781707075610001</v>
+        <v>47.477877326702497</v>
       </c>
       <c r="D25">
-        <v>6.6407580381114899</v>
+        <v>9.5062310163113999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -959,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>46.511343785348501</v>
+        <v>47.423416883991401</v>
       </c>
       <c r="D26">
-        <v>6.4941187237173903</v>
+        <v>9.3691949225297009</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -973,13 +1001,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>46.211167447950302</v>
+        <v>47.500313800000001</v>
       </c>
       <c r="D27">
-        <v>6.1428510558347096</v>
+        <v>8.7239736000000008</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -987,153 +1015,153 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>46.230920449778502</v>
+        <v>47.451026916503899</v>
       </c>
       <c r="D28">
-        <v>6.1100619971565804</v>
+        <v>8.5638494491577095</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>47.564320752841098</v>
+        <v>47.378844392360598</v>
       </c>
       <c r="D29">
-        <v>9.3795504388700497</v>
+        <v>8.5366312378669402</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="2">
-        <v>47.550714058363198</v>
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>47.391165376869999</v>
       </c>
       <c r="D30">
-        <v>9.3008149459178409</v>
+        <v>8.05176399790356</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>47.566635021240899</v>
+        <v>47.352446261822799</v>
       </c>
       <c r="D31">
-        <v>9.1051534115988009</v>
+        <v>7.9080594187659896</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="2">
-        <v>47.558512094919401</v>
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>47.204002935251303</v>
       </c>
       <c r="D32">
-        <v>8.8967609611300702</v>
+        <v>7.54321976893642</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>47.500313800000001</v>
+        <v>47.132393384583203</v>
       </c>
       <c r="D33">
-        <v>8.7239736000000008</v>
+        <v>7.2432906568774902</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>47.451026916503899</v>
+        <v>46.997037605992297</v>
       </c>
       <c r="D34">
-        <v>8.5638494491577095</v>
+        <v>6.9358085641640104</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>47.378844392360598</v>
+        <v>46.781707075610001</v>
       </c>
       <c r="D35">
-        <v>8.5366312378669402</v>
+        <v>6.6407580381114899</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>46.948803954456402</v>
+        <v>46.511343785348501</v>
       </c>
       <c r="D36">
-        <v>7.4381822645716396</v>
+        <v>6.4941187237173903</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="2">
-        <v>46.754493059830899</v>
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>46.211167447950302</v>
       </c>
       <c r="D37">
-        <v>7.6297619568178199</v>
+        <v>6.1428510558347096</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C38">
-        <v>46.686637883656203</v>
+        <v>46.230920449778502</v>
       </c>
       <c r="D38">
-        <v>7.6795160877024804</v>
+        <v>6.1100619971565804</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -1141,13 +1169,13 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="2">
-        <v>46.293996018292702</v>
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>47.564320752841098</v>
       </c>
       <c r="D39">
-        <v>7.8823069496506504</v>
+        <v>9.3795504388700497</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -1155,153 +1183,153 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2">
-        <v>46.319735538441797</v>
+        <v>47.550714058363198</v>
       </c>
       <c r="D40">
-        <v>7.9890612222601201</v>
+        <v>9.3008149459178409</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>47.564320752841098</v>
+        <v>47.566635021240899</v>
       </c>
       <c r="D41">
-        <v>9.3795504388700497</v>
+        <v>9.1051534115988009</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2">
-        <v>47.550714058363198</v>
+        <v>47.558512094919401</v>
       </c>
       <c r="D42">
-        <v>9.3008149459178409</v>
+        <v>8.8967609611300702</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>47.566635021240899</v>
+        <v>47.500313800000001</v>
       </c>
       <c r="D43">
-        <v>9.1051534115988009</v>
+        <v>8.7239736000000008</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="2">
-        <v>47.558512094919401</v>
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>47.451026916503899</v>
       </c>
       <c r="D44">
-        <v>8.8967609611300702</v>
+        <v>8.5638494491577095</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>47.500313800000001</v>
+        <v>47.378844392360598</v>
       </c>
       <c r="D45">
-        <v>8.7239736000000008</v>
+        <v>8.5366312378669402</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>47.451026916503899</v>
+        <v>46.948803954456402</v>
       </c>
       <c r="D46">
-        <v>8.5638494491577095</v>
+        <v>7.4381822645716396</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>47.378844392360598</v>
+        <v>38</v>
+      </c>
+      <c r="C47" s="2">
+        <v>46.754493059830899</v>
       </c>
       <c r="D47">
-        <v>8.5366312378669402</v>
+        <v>7.6297619568178199</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C48">
-        <v>46.948803954456402</v>
+        <v>46.686637883656203</v>
       </c>
       <c r="D48">
-        <v>7.4381822645716396</v>
+        <v>7.6795160877024804</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C49" s="2">
-        <v>46.754493059830899</v>
+        <v>46.293996018292702</v>
       </c>
       <c r="D49">
-        <v>7.6297619568178199</v>
+        <v>7.8823069496506504</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50">
-        <v>46.686637883656203</v>
+        <v>11</v>
+      </c>
+      <c r="C50" s="2">
+        <v>46.319735538441797</v>
       </c>
       <c r="D50">
-        <v>7.6795160877024804</v>
+        <v>7.9890612222601201</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
@@ -1309,13 +1337,13 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>46.681812425058503</v>
+        <v>47.564320752841098</v>
       </c>
       <c r="D51">
-        <v>7.85112465827509</v>
+        <v>9.3795504388700497</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -1323,153 +1351,153 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52">
-        <v>46.690938504185802</v>
+        <v>35</v>
+      </c>
+      <c r="C52" s="2">
+        <v>47.550714058363198</v>
       </c>
       <c r="D52">
-        <v>7.8705910662008201</v>
+        <v>9.3008149459178409</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C53">
-        <v>47.378844392360598</v>
+        <v>47.566635021240899</v>
       </c>
       <c r="D53">
-        <v>8.5366312378669402</v>
+        <v>9.1051534115988009</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54">
-        <v>47.411977068314599</v>
+        <v>37</v>
+      </c>
+      <c r="C54" s="2">
+        <v>47.558512094919401</v>
       </c>
       <c r="D54">
-        <v>8.5443714301261107</v>
+        <v>8.8967609611300702</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C55">
-        <v>47.451026916503899</v>
+        <v>47.500313800000001</v>
       </c>
       <c r="D55">
-        <v>8.5638494491577095</v>
+        <v>8.7239736000000008</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C56">
-        <v>47.500313800000001</v>
+        <v>47.451026916503899</v>
       </c>
       <c r="D56">
-        <v>8.7239736000000008</v>
+        <v>8.5638494491577095</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>47.4622350308791</v>
+        <v>47.378844392360598</v>
       </c>
       <c r="D57">
-        <v>9.0402704927504995</v>
+        <v>8.5366312378669402</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>47.437294341336298</v>
+        <v>46.948803954456402</v>
       </c>
       <c r="D58">
-        <v>9.1314685723731301</v>
+        <v>7.4381822645716396</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59">
-        <v>47.416248840622202</v>
+        <v>38</v>
+      </c>
+      <c r="C59" s="2">
+        <v>46.754493059830899</v>
       </c>
       <c r="D59">
-        <v>9.1884798399962904</v>
+        <v>7.6297619568178199</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C60">
-        <v>47.411754910582999</v>
+        <v>46.686637883656203</v>
       </c>
       <c r="D60">
-        <v>9.2541367432723298</v>
+        <v>7.6795160877024804</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C61">
-        <v>47.423416883991401</v>
+        <v>46.681812425058503</v>
       </c>
       <c r="D61">
-        <v>9.3691949225297009</v>
+        <v>7.85112465827509</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C62">
-        <v>47.477877326702497</v>
+        <v>46.690938504185802</v>
       </c>
       <c r="D62">
-        <v>9.5062310163113999</v>
+        <v>7.8705910662008201</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
@@ -1477,13 +1505,13 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>47.4531199726677</v>
+        <v>47.378844392360598</v>
       </c>
       <c r="D63">
-        <v>9.6393359720897003</v>
+        <v>8.5366312378669402</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
@@ -1491,13 +1519,13 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>47.4106693989661</v>
+        <v>47.411977068314599</v>
       </c>
       <c r="D64">
-        <v>9.62786633100397</v>
+        <v>8.5443714301261107</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -1505,13 +1533,13 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C65">
-        <v>47.374316881879501</v>
+        <v>47.451026916503899</v>
       </c>
       <c r="D65">
-        <v>9.5566797388699598</v>
+        <v>8.5638494491577095</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -1519,13 +1547,13 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C66">
-        <v>47.1690757525745</v>
+        <v>47.500313800000001</v>
       </c>
       <c r="D66">
-        <v>9.4786547986024008</v>
+        <v>8.7239736000000008</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
@@ -1533,13 +1561,13 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C67">
-        <v>47.0449995431389</v>
+        <v>47.4622350308791</v>
       </c>
       <c r="D67">
-        <v>9.4450359367138503</v>
+        <v>9.0402704927504995</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -1547,13 +1575,13 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C68">
-        <v>47.010652724072003</v>
+        <v>47.437294341336298</v>
       </c>
       <c r="D68">
-        <v>9.5040692444605508</v>
+        <v>9.1314685723731301</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
@@ -1561,13 +1589,13 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C69">
-        <v>46.965911359157303</v>
+        <v>47.416248840622202</v>
       </c>
       <c r="D69">
-        <v>9.5544109194051394</v>
+        <v>9.1884798399962904</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -1575,293 +1603,293 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>46.853521889299302</v>
+        <v>47.411754910582999</v>
       </c>
       <c r="D70">
-        <v>9.5286748704533899</v>
+        <v>9.2541367432723298</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C71">
-        <v>47.451026916503899</v>
+        <v>47.423416883991401</v>
       </c>
       <c r="D71">
-        <v>8.5638494491577095</v>
+        <v>9.3691949225297009</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>47.411977068314599</v>
+        <v>47.477877326702497</v>
       </c>
       <c r="D72">
-        <v>8.5443714301261107</v>
+        <v>9.5062310163113999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C73">
-        <v>47.378844392360598</v>
+        <v>47.4531199726677</v>
       </c>
       <c r="D73">
-        <v>8.5366312378669402</v>
+        <v>9.6393359720897003</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C74">
-        <v>47.391776769807699</v>
+        <v>47.4106693989661</v>
       </c>
       <c r="D74">
-        <v>8.4889949681779306</v>
+        <v>9.62786633100397</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C75">
-        <v>47.404934295632003</v>
+        <v>47.374316881879501</v>
       </c>
       <c r="D75">
-        <v>8.4056794950486093</v>
+        <v>9.5566797388699598</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C76">
-        <v>47.476059475867402</v>
+        <v>47.1690757525745</v>
       </c>
       <c r="D76">
-        <v>8.3072302524458497</v>
+        <v>9.4786547986024008</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C77">
-        <v>47.481500421538001</v>
+        <v>47.0449995431389</v>
       </c>
       <c r="D77">
-        <v>8.2096003964462607</v>
+        <v>9.4450359367138503</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C78">
-        <v>47.507001732751803</v>
+        <v>47.010652724072003</v>
       </c>
       <c r="D78">
-        <v>8.0126468057099203</v>
+        <v>9.5040692444605508</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C79">
-        <v>47.550987385074997</v>
+        <v>46.965911359157303</v>
       </c>
       <c r="D79">
-        <v>7.7917762516874101</v>
+        <v>9.5544109194051394</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>47.547121363896103</v>
+        <v>46.853521889299302</v>
       </c>
       <c r="D80">
-        <v>7.5887719373530196</v>
+        <v>9.5286748704533899</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C81">
-        <v>47.658796191499803</v>
+        <v>47.451026916503899</v>
       </c>
       <c r="D81">
-        <v>9.1773552150332307</v>
+        <v>8.5638494491577095</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C82">
-        <v>47.652790457430399</v>
+        <v>47.411977068314599</v>
       </c>
       <c r="D82">
-        <v>9.1687873259331898</v>
+        <v>8.5443714301261107</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C83">
-        <v>47.566635021240899</v>
+        <v>47.378844392360598</v>
       </c>
       <c r="D83">
-        <v>9.1051534115988009</v>
+        <v>8.5366312378669402</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="2">
-        <v>47.558512094919401</v>
+        <v>49</v>
+      </c>
+      <c r="C84">
+        <v>47.391776769807699</v>
       </c>
       <c r="D84">
-        <v>8.8967609611300702</v>
+        <v>8.4889949681779306</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C85">
-        <v>47.500313800000001</v>
+        <v>47.404934295632003</v>
       </c>
       <c r="D85">
-        <v>8.7239736000000008</v>
+        <v>8.4056794950486093</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C86">
-        <v>47.451026916503899</v>
+        <v>47.476059475867402</v>
       </c>
       <c r="D86">
-        <v>8.5638494491577095</v>
+        <v>8.3072302524458497</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C87">
-        <v>47.378844392360598</v>
+        <v>47.481500421538001</v>
       </c>
       <c r="D87">
-        <v>8.5366312378669402</v>
+        <v>8.2096003964462607</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C88">
-        <v>47.295997846720702</v>
+        <v>47.507001732751803</v>
       </c>
       <c r="D88">
-        <v>8.5643424956280807</v>
+        <v>8.0126468057099203</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C89">
-        <v>47.195293546503798</v>
+        <v>47.550987385074997</v>
       </c>
       <c r="D89">
-        <v>8.5227427610704005</v>
+        <v>7.7917762516874101</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>47.174689802053202</v>
+        <v>47.547121363896103</v>
       </c>
       <c r="D90">
-        <v>8.5157440244758895</v>
+        <v>7.5887719373530196</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
@@ -1869,13 +1897,13 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C91">
-        <v>47.142021490046602</v>
+        <v>47.658796191499803</v>
       </c>
       <c r="D91">
-        <v>8.4307881053273093</v>
+        <v>9.1773552150332307</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
@@ -1883,12 +1911,152 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92">
+        <v>47.652790457430399</v>
+      </c>
+      <c r="D92">
+        <v>9.1687873259331898</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93">
+        <v>47.566635021240899</v>
+      </c>
+      <c r="D93">
+        <v>9.1051534115988009</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="2">
+        <v>47.558512094919401</v>
+      </c>
+      <c r="D94">
+        <v>8.8967609611300702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>47.500313800000001</v>
+      </c>
+      <c r="D95">
+        <v>8.7239736000000008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>47.451026916503899</v>
+      </c>
+      <c r="D96">
+        <v>8.5638494491577095</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>47.378844392360598</v>
+      </c>
+      <c r="D97">
+        <v>8.5366312378669402</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98">
+        <v>47.295997846720702</v>
+      </c>
+      <c r="D98">
+        <v>8.5643424956280807</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99">
+        <v>47.195293546503798</v>
+      </c>
+      <c r="D99">
+        <v>8.5227427610704005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100">
+        <v>47.174689802053202</v>
+      </c>
+      <c r="D100">
+        <v>8.5157440244758895</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101">
+        <v>47.142021490046602</v>
+      </c>
+      <c r="D101">
+        <v>8.4307881053273093</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
         <v>19</v>
       </c>
-      <c r="C92">
+      <c r="C102">
         <v>47.049803877918997</v>
       </c>
-      <c r="D92">
+      <c r="D102">
         <v>8.3102272359479006</v>
       </c>
     </row>
